--- a/Code/Results/Cases/Case_3_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.825636067768983</v>
+        <v>0.6218584934567843</v>
       </c>
       <c r="C2">
-        <v>0.3792145159734446</v>
+        <v>0.1255808333290247</v>
       </c>
       <c r="D2">
-        <v>0.215892265600516</v>
+        <v>0.3359913593267265</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.5985996761888472</v>
+        <v>0.9814382793540233</v>
       </c>
       <c r="G2">
-        <v>0.3174335652446842</v>
+        <v>0.4137118716529784</v>
       </c>
       <c r="H2">
-        <v>0.2493203123926122</v>
+        <v>0.5649482420951557</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1557397545838128</v>
+        <v>0.2857612890011794</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.6382119753404609</v>
+        <v>0.3459348674320069</v>
       </c>
       <c r="N2">
-        <v>0.7136618090293467</v>
+        <v>1.096101562761191</v>
       </c>
       <c r="O2">
-        <v>1.145179747944525</v>
+        <v>1.905289578465414</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.589627950116437</v>
+        <v>0.5490857916998664</v>
       </c>
       <c r="C3">
-        <v>0.336368075348048</v>
+        <v>0.1115784013191501</v>
       </c>
       <c r="D3">
-        <v>0.1981833028153659</v>
+        <v>0.333012261315389</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.5617817499969533</v>
+        <v>0.9802153319229632</v>
       </c>
       <c r="G3">
-        <v>0.2935564348074067</v>
+        <v>0.4118609893941141</v>
       </c>
       <c r="H3">
-        <v>0.243648953513663</v>
+        <v>0.5678181318704461</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1474033458250545</v>
+        <v>0.2858804709817093</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5563246334338743</v>
+        <v>0.3229134246916274</v>
       </c>
       <c r="N3">
-        <v>0.7248883467984371</v>
+        <v>1.102643284451894</v>
       </c>
       <c r="O3">
-        <v>1.082331887684617</v>
+        <v>1.907104797245609</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.444713826619932</v>
+        <v>0.5043429713382181</v>
       </c>
       <c r="C4">
-        <v>0.3100045190796266</v>
+        <v>0.1029363246645971</v>
       </c>
       <c r="D4">
-        <v>0.1875078827541614</v>
+        <v>0.3313160368147976</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.5403162389003171</v>
+        <v>0.9800599480283836</v>
       </c>
       <c r="G4">
-        <v>0.279651298719898</v>
+        <v>0.4110542255999903</v>
       </c>
       <c r="H4">
-        <v>0.2406491667141069</v>
+        <v>0.5698619023312972</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1425659764808529</v>
+        <v>0.2861075869822685</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.5062302036506665</v>
+        <v>0.308867857954219</v>
       </c>
       <c r="N4">
-        <v>0.7326755861884564</v>
+        <v>1.107087287862228</v>
       </c>
       <c r="O4">
-        <v>1.04634508662096</v>
+        <v>1.909498277809831</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.385644577444936</v>
+        <v>0.4860960140117925</v>
       </c>
       <c r="C5">
-        <v>0.2992454768668864</v>
+        <v>0.0994036709620616</v>
       </c>
       <c r="D5">
-        <v>0.1832046131283533</v>
+        <v>0.3306583501678659</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.5318401797214278</v>
+        <v>0.9801463902052134</v>
       </c>
       <c r="G5">
-        <v>0.2741630667158788</v>
+        <v>0.4108082524469623</v>
       </c>
       <c r="H5">
-        <v>0.2395427865848632</v>
+        <v>0.5707656082216488</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1406616793132329</v>
+        <v>0.2862388484923741</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4858554431319675</v>
+        <v>0.3031671009468297</v>
       </c>
       <c r="N5">
-        <v>0.7360670623251053</v>
+        <v>1.109005859047159</v>
       </c>
       <c r="O5">
-        <v>1.032298527063716</v>
+        <v>1.910795056572837</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.3758348260221</v>
+        <v>0.4830653172208201</v>
       </c>
       <c r="C6">
-        <v>0.2974579525075285</v>
+        <v>0.09881642355968268</v>
       </c>
       <c r="D6">
-        <v>0.182492822979782</v>
+        <v>0.3305511705788007</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.5304486813956117</v>
+        <v>0.9801697896311268</v>
       </c>
       <c r="G6">
-        <v>0.2732621805592217</v>
+        <v>0.4107724057839235</v>
       </c>
       <c r="H6">
-        <v>0.2393659333791618</v>
+        <v>0.5709199481357885</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1403494108590237</v>
+        <v>0.2862629823823895</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4824743863049861</v>
+        <v>0.3022218901748062</v>
       </c>
       <c r="N6">
-        <v>0.7366431977770631</v>
+        <v>1.109330939539099</v>
       </c>
       <c r="O6">
-        <v>1.030002433387295</v>
+        <v>1.911029793134162</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.443917279651487</v>
+        <v>0.504096941138954</v>
       </c>
       <c r="C7">
-        <v>0.3098594844861964</v>
+        <v>0.1028887260018223</v>
       </c>
       <c r="D7">
-        <v>0.1874496603580837</v>
+        <v>0.3313070310841226</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.5402008493284214</v>
+        <v>0.9800605074147057</v>
       </c>
       <c r="G7">
-        <v>0.2795765760337758</v>
+        <v>0.4110505732576897</v>
       </c>
       <c r="H7">
-        <v>0.2406337825467304</v>
+        <v>0.5698738031050397</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.142540028125822</v>
+        <v>0.28610920048407</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.5059552734771771</v>
+        <v>0.3087908822343195</v>
       </c>
       <c r="N7">
-        <v>0.7327204503200022</v>
+        <v>1.107112726512163</v>
       </c>
       <c r="O7">
-        <v>1.046153192436122</v>
+        <v>1.909514465463005</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.744252259753523</v>
+        <v>0.5967796431650072</v>
       </c>
       <c r="C8">
-        <v>0.3644515529573198</v>
+        <v>0.1207621876238534</v>
       </c>
       <c r="D8">
-        <v>0.2097434430550891</v>
+        <v>0.3349366339660236</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.5856584738510691</v>
+        <v>0.9808930154117377</v>
       </c>
       <c r="G8">
-        <v>0.3090366735057444</v>
+        <v>0.4130051918442916</v>
       </c>
       <c r="H8">
-        <v>0.2472614528103776</v>
+        <v>0.5658793420331989</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1528046828931693</v>
+        <v>0.2857704330119617</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.6099343222981091</v>
+        <v>0.337978673794467</v>
       </c>
       <c r="N8">
-        <v>0.7173430046802807</v>
+        <v>1.098268532647268</v>
       </c>
       <c r="O8">
-        <v>1.12294758677703</v>
+        <v>1.905649910107428</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.333902125265922</v>
+        <v>0.7780086776989492</v>
       </c>
       <c r="C9">
-        <v>0.4711523253321559</v>
+        <v>0.1554488912754834</v>
       </c>
       <c r="D9">
-        <v>0.2551638376625363</v>
+        <v>0.3431051961943297</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.6845948575367728</v>
+        <v>0.9872515285725143</v>
       </c>
       <c r="G9">
-        <v>0.3733622619763395</v>
+        <v>0.4194600690769335</v>
       </c>
       <c r="H9">
-        <v>0.2643365519538463</v>
+        <v>0.5602799452844351</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1753437390224022</v>
+        <v>0.2863278562589144</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.8156629509140316</v>
+        <v>0.3959141696642945</v>
       </c>
       <c r="N9">
-        <v>0.6946011734715043</v>
+        <v>1.08431024235734</v>
       </c>
       <c r="O9">
-        <v>1.295898358643029</v>
+        <v>1.908230099884491</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.768660836981269</v>
+        <v>0.9107924468736996</v>
       </c>
       <c r="C10">
-        <v>0.5494690859116531</v>
+        <v>0.18070102971609</v>
       </c>
       <c r="D10">
-        <v>0.2897682874057637</v>
+        <v>0.3497429050156029</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.7643478350983628</v>
+        <v>0.9948076915100472</v>
       </c>
       <c r="G10">
-        <v>0.4254419135506993</v>
+        <v>0.4258103910849087</v>
       </c>
       <c r="H10">
-        <v>0.2797360417794579</v>
+        <v>0.5575269442508954</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1936362643090135</v>
+        <v>0.287483167760648</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9684712979997911</v>
+        <v>0.4388915671849034</v>
       </c>
       <c r="N10">
-        <v>0.6828798968637528</v>
+        <v>1.076111625526821</v>
       </c>
       <c r="O10">
-        <v>1.439113340810906</v>
+        <v>1.916337571568789</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.967048978178411</v>
+        <v>0.9711106639315403</v>
       </c>
       <c r="C11">
-        <v>0.5851152191937388</v>
+        <v>0.1921363140792209</v>
       </c>
       <c r="D11">
-        <v>0.3058252059140614</v>
+        <v>0.3528998563975705</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.8024219795860148</v>
+        <v>0.9988724293229723</v>
       </c>
       <c r="G11">
-        <v>0.4503755376034064</v>
+        <v>0.4290505812332839</v>
       </c>
       <c r="H11">
-        <v>0.2874485617984561</v>
+        <v>0.5565698907232957</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2023968176849706</v>
+        <v>0.2881709279071245</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>1.038478974172648</v>
+        <v>0.4585299942744854</v>
       </c>
       <c r="N11">
-        <v>0.6787409973863276</v>
+        <v>1.072827024540423</v>
       </c>
       <c r="O11">
-        <v>1.508367258169869</v>
+        <v>1.921378985876657</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.042285108529938</v>
+        <v>0.9939381989250933</v>
       </c>
       <c r="C12">
-        <v>0.5986192411668867</v>
+        <v>0.1964588420425457</v>
       </c>
       <c r="D12">
-        <v>0.3119549358323326</v>
+        <v>0.3541149794204159</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0.8171205797502665</v>
+        <v>1.000501885633597</v>
       </c>
       <c r="G12">
-        <v>0.4600131925292175</v>
+        <v>0.4303282300867579</v>
       </c>
       <c r="H12">
-        <v>0.2904785425813827</v>
+        <v>0.5562499248840851</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.205782920027076</v>
+        <v>0.2884546992886641</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.065071576099463</v>
+        <v>0.4659788605973247</v>
       </c>
       <c r="N12">
-        <v>0.6773551545488985</v>
+        <v>1.071647110772403</v>
       </c>
       <c r="O12">
-        <v>1.535235082843855</v>
+        <v>1.92348290975707</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.026076354681891</v>
+        <v>0.9890225097093435</v>
       </c>
       <c r="C13">
-        <v>0.5957106117291744</v>
+        <v>0.19552825819639</v>
       </c>
       <c r="D13">
-        <v>0.3106325285907729</v>
+        <v>0.3538524085285957</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>0.8139421082920535</v>
+        <v>1.000146940008989</v>
       </c>
       <c r="G13">
-        <v>0.4579285554302572</v>
+        <v>0.4300508104319505</v>
       </c>
       <c r="H13">
-        <v>0.2898209871827504</v>
+        <v>0.5563169475251044</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2050505163028831</v>
+        <v>0.2883925462598</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.059340541143513</v>
+        <v>0.4643740769006257</v>
       </c>
       <c r="N13">
-        <v>0.6776453855352145</v>
+        <v>1.071898386123252</v>
       </c>
       <c r="O13">
-        <v>1.529419148772007</v>
+        <v>1.923021122183115</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.973236343225324</v>
+        <v>0.9729889804409595</v>
       </c>
       <c r="C14">
-        <v>0.5862260738981604</v>
+        <v>0.1924920883174082</v>
       </c>
       <c r="D14">
-        <v>0.3063284901051588</v>
+        <v>0.352999432018521</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.8036254799193472</v>
+        <v>0.9990046773192205</v>
       </c>
       <c r="G14">
-        <v>0.4511644059654998</v>
+        <v>0.4291546781559674</v>
       </c>
       <c r="H14">
-        <v>0.2876956011987062</v>
+        <v>0.5565427162712382</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2026739851670811</v>
+        <v>0.2881938063116962</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>1.040665049234271</v>
+        <v>0.4591425743956208</v>
       </c>
       <c r="N14">
-        <v>0.6786232874744158</v>
+        <v>1.07272867234132</v>
       </c>
       <c r="O14">
-        <v>1.510564492303445</v>
+        <v>1.92154817046773</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.940885443759214</v>
+        <v>0.9631661618454359</v>
       </c>
       <c r="C15">
-        <v>0.5804173381585542</v>
+        <v>0.190631326850081</v>
       </c>
       <c r="D15">
-        <v>0.3036986888834718</v>
+        <v>0.3524795156259444</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.7973435099758603</v>
+        <v>0.9983167590663413</v>
       </c>
       <c r="G15">
-        <v>0.4470472019008724</v>
+        <v>0.4286123723760085</v>
       </c>
       <c r="H15">
-        <v>0.2864082281589475</v>
+        <v>0.556686533907552</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2012274042779225</v>
+        <v>0.2880751110129296</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>1.029236821863002</v>
+        <v>0.45593970748169</v>
       </c>
       <c r="N15">
-        <v>0.6792462174468028</v>
+        <v>1.073245564648055</v>
       </c>
       <c r="O15">
-        <v>1.499100812809388</v>
+        <v>1.920671327526719</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.755709951723929</v>
+        <v>0.9068486696723426</v>
       </c>
       <c r="C16">
-        <v>0.5471401530378444</v>
+        <v>0.1799526356254546</v>
       </c>
       <c r="D16">
-        <v>0.2887256082796625</v>
+        <v>0.3495393469682</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.7618976137383981</v>
+        <v>0.9945546770349125</v>
       </c>
       <c r="G16">
-        <v>0.4238388849358614</v>
+        <v>0.4256057190788596</v>
       </c>
       <c r="H16">
-        <v>0.2792468897652043</v>
+        <v>0.5575954309306894</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1930730423010658</v>
+        <v>0.2874414855560161</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9639070125489866</v>
+        <v>0.4376098818498164</v>
       </c>
       <c r="N16">
-        <v>0.6831752248687266</v>
+        <v>1.076335227998733</v>
       </c>
       <c r="O16">
-        <v>1.434674450692597</v>
+        <v>1.916035356196772</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.642283596169136</v>
+        <v>0.8722767945277496</v>
       </c>
       <c r="C17">
-        <v>0.5267325795423119</v>
+        <v>0.1733880743259135</v>
       </c>
       <c r="D17">
-        <v>0.2796235981871007</v>
+        <v>0.3477707700078554</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.7406279462177991</v>
+        <v>0.9924074607808251</v>
       </c>
       <c r="G17">
-        <v>0.4099314009317538</v>
+        <v>0.4238513278851457</v>
       </c>
       <c r="H17">
-        <v>0.2750401090760022</v>
+        <v>0.5582286331992208</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1881869021542641</v>
+        <v>0.2870943259619452</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.9239635782175739</v>
+        <v>0.4263873258109285</v>
       </c>
       <c r="N17">
-        <v>0.685897988239546</v>
+        <v>1.078344539784574</v>
       </c>
       <c r="O17">
-        <v>1.396238634614662</v>
+        <v>1.913538124850959</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.577100122672732</v>
+        <v>0.8523839711119763</v>
       </c>
       <c r="C18">
-        <v>0.5149963308196277</v>
+        <v>0.1696074308922846</v>
       </c>
       <c r="D18">
-        <v>0.2744177743056753</v>
+        <v>0.3467664727734956</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.7285616182362418</v>
+        <v>0.9912314923324743</v>
       </c>
       <c r="G18">
-        <v>0.4020480238501705</v>
+        <v>0.4228753159997041</v>
       </c>
       <c r="H18">
-        <v>0.2726865549064854</v>
+        <v>0.5586206303264873</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1854175108995051</v>
+        <v>0.2869099158716963</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.9010349934104838</v>
+        <v>0.4199406961101388</v>
       </c>
       <c r="N18">
-        <v>0.6875757281497243</v>
+        <v>1.079542132897814</v>
       </c>
       <c r="O18">
-        <v>1.374514374247809</v>
+        <v>1.912229146313024</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.555039140780934</v>
+        <v>0.8456472702445694</v>
       </c>
       <c r="C19">
-        <v>0.511022840094995</v>
+        <v>0.1683265402287759</v>
       </c>
       <c r="D19">
-        <v>0.272660105605965</v>
+        <v>0.3464286609655289</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.7245042525886305</v>
+        <v>0.990843471837934</v>
       </c>
       <c r="G19">
-        <v>0.3993982380188754</v>
+        <v>0.4225505305794002</v>
       </c>
       <c r="H19">
-        <v>0.2719008033394914</v>
+        <v>0.5587581282318865</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1844867201292786</v>
+        <v>0.2868500996794623</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8932793127139078</v>
+        <v>0.4177594138045961</v>
       </c>
       <c r="N19">
-        <v>0.6881626715066602</v>
+        <v>1.079954815004136</v>
       </c>
       <c r="O19">
-        <v>1.367223147125799</v>
+        <v>1.911807815732971</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.654352033917917</v>
+        <v>0.8759578667618939</v>
       </c>
       <c r="C20">
-        <v>0.528904810479446</v>
+        <v>0.1740873903391105</v>
       </c>
       <c r="D20">
-        <v>0.2805894505678594</v>
+        <v>0.3479576994304523</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.7428746509772566</v>
+        <v>0.9926299237276055</v>
       </c>
       <c r="G20">
-        <v>0.4113997664527318</v>
+        <v>0.4240346625201852</v>
       </c>
       <c r="H20">
-        <v>0.2754810352699906</v>
+        <v>0.5581583510645203</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1887027593025508</v>
+        <v>0.2871297015732424</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.9282108045679465</v>
+        <v>0.427581131242377</v>
       </c>
       <c r="N20">
-        <v>0.6855965174418586</v>
+        <v>1.078126310350932</v>
       </c>
       <c r="O20">
-        <v>1.400290183216583</v>
+        <v>1.913790775994528</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.98875353904873</v>
+        <v>0.9776987980844183</v>
       </c>
       <c r="C21">
-        <v>0.5890117368232666</v>
+        <v>0.1933840980277353</v>
       </c>
       <c r="D21">
-        <v>0.3075913187102941</v>
+        <v>0.353249439347195</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.8066479154519755</v>
+        <v>0.9993377387265667</v>
       </c>
       <c r="G21">
-        <v>0.4531457431173607</v>
+        <v>0.429416518034401</v>
       </c>
       <c r="H21">
-        <v>0.288316844941221</v>
+        <v>0.5564752505627268</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2033701204420595</v>
+        <v>0.2882515477863876</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.046148169953454</v>
+        <v>0.4606788650655105</v>
       </c>
       <c r="N21">
-        <v>0.6783310470262052</v>
+        <v>1.072483063849297</v>
       </c>
       <c r="O21">
-        <v>1.516084677860249</v>
+        <v>1.921975521958672</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.207962064276387</v>
+        <v>1.044112114198754</v>
       </c>
       <c r="C22">
-        <v>0.6283292441743242</v>
+        <v>0.2059502148155445</v>
       </c>
       <c r="D22">
-        <v>0.3255281462049737</v>
+        <v>0.3568224062251062</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>0.8499755141984622</v>
+        <v>1.004247606360849</v>
       </c>
       <c r="G22">
-        <v>0.4815794308391759</v>
+        <v>0.4332292107990554</v>
       </c>
       <c r="H22">
-        <v>0.2973475159278536</v>
+        <v>0.5556226689469526</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2133591896772913</v>
+        <v>0.2891207362991253</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.123712021485389</v>
+        <v>0.4823811883607476</v>
       </c>
       <c r="N22">
-        <v>0.6746454253177916</v>
+        <v>1.069167253692498</v>
       </c>
       <c r="O22">
-        <v>1.595537202497923</v>
+        <v>1.928460572925019</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.090898262632948</v>
+        <v>1.008673860267038</v>
       </c>
       <c r="C23">
-        <v>0.6073406310465828</v>
+        <v>0.1992476888797228</v>
       </c>
       <c r="D23">
-        <v>0.3159270380478176</v>
+        <v>0.354905004493105</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>0.8266920399660052</v>
+        <v>1.001578993096771</v>
       </c>
       <c r="G23">
-        <v>0.466292603745984</v>
+        <v>0.4311672392217503</v>
       </c>
       <c r="H23">
-        <v>0.2924662708542627</v>
+        <v>0.5560550734200547</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2079890300854927</v>
+        <v>0.2886443880397778</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.082266469679624</v>
+        <v>0.4707918833628568</v>
       </c>
       <c r="N23">
-        <v>0.676511833095077</v>
+        <v>1.070902922015549</v>
       </c>
       <c r="O23">
-        <v>1.552768245829895</v>
+        <v>1.924895367752413</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.64889581126431</v>
+        <v>0.874293706831395</v>
       </c>
       <c r="C24">
-        <v>0.5279227564910798</v>
+        <v>0.1737712500753616</v>
       </c>
       <c r="D24">
-        <v>0.280152704773414</v>
+        <v>0.3478731497531271</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.7418584132160504</v>
+        <v>0.9925291660231466</v>
       </c>
       <c r="G24">
-        <v>0.4107355701444533</v>
+        <v>0.4239516753606694</v>
       </c>
       <c r="H24">
-        <v>0.2752814907170915</v>
+        <v>0.55819003852001</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1884694169926107</v>
+        <v>0.2871136609868543</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.9262905240166788</v>
+        <v>0.4270413950583745</v>
       </c>
       <c r="N24">
-        <v>0.685732463070174</v>
+        <v>1.078224839756039</v>
       </c>
       <c r="O24">
-        <v>1.398457320212486</v>
+        <v>1.913676157728247</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.174200955183323</v>
+        <v>0.729042145910455</v>
       </c>
       <c r="C25">
-        <v>0.4423111159356097</v>
+        <v>0.1461052131865017</v>
       </c>
       <c r="D25">
-        <v>0.2426746084874765</v>
+        <v>0.3407833303470511</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.6566724373169492</v>
+        <v>0.9850250704817753</v>
       </c>
       <c r="G25">
-        <v>0.3551766987852574</v>
+        <v>0.4174321712280857</v>
       </c>
       <c r="H25">
-        <v>0.2592440078375802</v>
+        <v>0.5615556840317026</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1689620435903407</v>
+        <v>0.2860461621919583</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7597581743132551</v>
+        <v>0.3801677211708494</v>
       </c>
       <c r="N25">
-        <v>0.6999132312629044</v>
+        <v>1.087724680636711</v>
       </c>
       <c r="O25">
-        <v>1.246466191155434</v>
+        <v>1.906442585080072</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_211/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_3_211/res_line/pl_mw.xlsx
@@ -421,31 +421,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.6218584934567843</v>
+        <v>1.825636067768698</v>
       </c>
       <c r="C2">
-        <v>0.1255808333290247</v>
+        <v>0.3792145159734446</v>
       </c>
       <c r="D2">
-        <v>0.3359913593267265</v>
+        <v>0.215892265600516</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>0.9814382793540233</v>
+        <v>0.5985996761888686</v>
       </c>
       <c r="G2">
-        <v>0.4137118716529784</v>
+        <v>0.3174335652446558</v>
       </c>
       <c r="H2">
-        <v>0.5649482420951557</v>
+        <v>0.2493203123927117</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2857612890011794</v>
+        <v>0.1557397545838342</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.3459348674320069</v>
+        <v>0.6382119753404751</v>
       </c>
       <c r="N2">
-        <v>1.096101562761191</v>
+        <v>0.7136618090293325</v>
       </c>
       <c r="O2">
-        <v>1.905289578465414</v>
+        <v>1.145179747944582</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,31 +468,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.5490857916998664</v>
+        <v>1.589627950116437</v>
       </c>
       <c r="C3">
-        <v>0.1115784013191501</v>
+        <v>0.3363680753479628</v>
       </c>
       <c r="D3">
-        <v>0.333012261315389</v>
+        <v>0.198183302815238</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0.9802153319229632</v>
+        <v>0.5617817499969462</v>
       </c>
       <c r="G3">
-        <v>0.4118609893941141</v>
+        <v>0.2935564348073996</v>
       </c>
       <c r="H3">
-        <v>0.5678181318704461</v>
+        <v>0.2436489535135493</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2858804709817093</v>
+        <v>0.1474033458251114</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3229134246916274</v>
+        <v>0.5563246334338814</v>
       </c>
       <c r="N3">
-        <v>1.102643284451894</v>
+        <v>0.72488834679843</v>
       </c>
       <c r="O3">
-        <v>1.907104797245609</v>
+        <v>1.082331887684688</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,31 +515,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.5043429713382181</v>
+        <v>1.444713826619875</v>
       </c>
       <c r="C4">
-        <v>0.1029363246645971</v>
+        <v>0.3100045190797687</v>
       </c>
       <c r="D4">
-        <v>0.3313160368147976</v>
+        <v>0.1875078827544741</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>0.9800599480283836</v>
+        <v>0.5403162389003171</v>
       </c>
       <c r="G4">
-        <v>0.4110542255999903</v>
+        <v>0.2796512987199478</v>
       </c>
       <c r="H4">
-        <v>0.5698619023312972</v>
+        <v>0.2406491667142205</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2861075869822685</v>
+        <v>0.1425659764808103</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.308867857954219</v>
+        <v>0.5062302036506736</v>
       </c>
       <c r="N4">
-        <v>1.107087287862228</v>
+        <v>0.7326755861884564</v>
       </c>
       <c r="O4">
-        <v>1.909498277809831</v>
+        <v>1.04634508662096</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,31 +562,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4860960140117925</v>
+        <v>1.385644577444936</v>
       </c>
       <c r="C5">
-        <v>0.0994036709620616</v>
+        <v>0.2992454768668296</v>
       </c>
       <c r="D5">
-        <v>0.3306583501678659</v>
+        <v>0.1832046131281544</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.9801463902052134</v>
+        <v>0.5318401797214278</v>
       </c>
       <c r="G5">
-        <v>0.4108082524469623</v>
+        <v>0.2741630667158788</v>
       </c>
       <c r="H5">
-        <v>0.5707656082216488</v>
+        <v>0.2395427865848632</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2862388484923741</v>
+        <v>0.1406616793133466</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3031671009468297</v>
+        <v>0.4858554431319462</v>
       </c>
       <c r="N5">
-        <v>1.109005859047159</v>
+        <v>0.7360670623251053</v>
       </c>
       <c r="O5">
-        <v>1.910795056572837</v>
+        <v>1.03229852706373</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,31 +609,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4830653172208201</v>
+        <v>1.3758348260221</v>
       </c>
       <c r="C6">
-        <v>0.09881642355968268</v>
+        <v>0.2974579525073011</v>
       </c>
       <c r="D6">
-        <v>0.3305511705788007</v>
+        <v>0.1824928229795546</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.9801697896311268</v>
+        <v>0.5304486813956046</v>
       </c>
       <c r="G6">
-        <v>0.4107724057839235</v>
+        <v>0.2732621805592217</v>
       </c>
       <c r="H6">
-        <v>0.5709199481357885</v>
+        <v>0.2393659333791618</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2862629823823895</v>
+        <v>0.1403494108590664</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.3022218901748062</v>
+        <v>0.4824743863050003</v>
       </c>
       <c r="N6">
-        <v>1.109330939539099</v>
+        <v>0.7366431977770702</v>
       </c>
       <c r="O6">
-        <v>1.911029793134162</v>
+        <v>1.030002433387295</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,31 +656,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.504096941138954</v>
+        <v>1.4439172796516</v>
       </c>
       <c r="C7">
-        <v>0.1028887260018223</v>
+        <v>0.3098594844862532</v>
       </c>
       <c r="D7">
-        <v>0.3313070310841226</v>
+        <v>0.1874496603581264</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.9800605074147057</v>
+        <v>0.5402008493284285</v>
       </c>
       <c r="G7">
-        <v>0.4110505732576897</v>
+        <v>0.2795765760337758</v>
       </c>
       <c r="H7">
-        <v>0.5698738031050397</v>
+        <v>0.2406337825467304</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.28610920048407</v>
+        <v>0.1425400281258717</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3087908822343195</v>
+        <v>0.5059552734771842</v>
       </c>
       <c r="N7">
-        <v>1.107112726512163</v>
+        <v>0.7327204503199809</v>
       </c>
       <c r="O7">
-        <v>1.909514465463005</v>
+        <v>1.046153192436108</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,31 +703,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.5967796431650072</v>
+        <v>1.744252259753523</v>
       </c>
       <c r="C8">
-        <v>0.1207621876238534</v>
+        <v>0.3644515529573482</v>
       </c>
       <c r="D8">
-        <v>0.3349366339660236</v>
+        <v>0.2097434430551317</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.9808930154117377</v>
+        <v>0.5856584738510691</v>
       </c>
       <c r="G8">
-        <v>0.4130051918442916</v>
+        <v>0.3090366735057444</v>
       </c>
       <c r="H8">
-        <v>0.5658793420331989</v>
+        <v>0.2472614528105055</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2857704330119617</v>
+        <v>0.1528046828931977</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.337978673794467</v>
+        <v>0.6099343222980949</v>
       </c>
       <c r="N8">
-        <v>1.098268532647268</v>
+        <v>0.7173430046802807</v>
       </c>
       <c r="O8">
-        <v>1.905649910107428</v>
+        <v>1.122947586776974</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,31 +750,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.7780086776989492</v>
+        <v>2.333902125266036</v>
       </c>
       <c r="C9">
-        <v>0.1554488912754834</v>
+        <v>0.4711523253322127</v>
       </c>
       <c r="D9">
-        <v>0.3431051961943297</v>
+        <v>0.2551638376623941</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.9872515285725143</v>
+        <v>0.6845948575367728</v>
       </c>
       <c r="G9">
-        <v>0.4194600690769335</v>
+        <v>0.3733622619762968</v>
       </c>
       <c r="H9">
-        <v>0.5602799452844351</v>
+        <v>0.2643365519538463</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2863278562589144</v>
+        <v>0.175343739022388</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.3959141696642945</v>
+        <v>0.8156629509140316</v>
       </c>
       <c r="N9">
-        <v>1.08431024235734</v>
+        <v>0.6946011734714403</v>
       </c>
       <c r="O9">
-        <v>1.908230099884491</v>
+        <v>1.295898358643086</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,31 +797,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9107924468736996</v>
+        <v>2.768660836981269</v>
       </c>
       <c r="C10">
-        <v>0.18070102971609</v>
+        <v>0.5494690859122215</v>
       </c>
       <c r="D10">
-        <v>0.3497429050156029</v>
+        <v>0.2897682874056642</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.9948076915100472</v>
+        <v>0.7643478350983628</v>
       </c>
       <c r="G10">
-        <v>0.4258103910849087</v>
+        <v>0.4254419135507419</v>
       </c>
       <c r="H10">
-        <v>0.5575269442508954</v>
+        <v>0.2797360417794579</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.287483167760648</v>
+        <v>0.1936362643090561</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.4388915671849034</v>
+        <v>0.9684712979997769</v>
       </c>
       <c r="N10">
-        <v>1.076111625526821</v>
+        <v>0.6828798968637528</v>
       </c>
       <c r="O10">
-        <v>1.916337571568789</v>
+        <v>1.439113340810934</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,31 +844,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.9711106639315403</v>
+        <v>2.967048978178354</v>
       </c>
       <c r="C11">
-        <v>0.1921363140792209</v>
+        <v>0.5851152191935398</v>
       </c>
       <c r="D11">
-        <v>0.3528998563975705</v>
+        <v>0.3058252059142887</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>0.9988724293229723</v>
+        <v>0.8024219795860148</v>
       </c>
       <c r="G11">
-        <v>0.4290505812332839</v>
+        <v>0.4503755376034206</v>
       </c>
       <c r="H11">
-        <v>0.5565698907232957</v>
+        <v>0.2874485617985556</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2881709279071245</v>
+        <v>0.2023968176849209</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4585299942744854</v>
+        <v>1.038478974172655</v>
       </c>
       <c r="N11">
-        <v>1.072827024540423</v>
+        <v>0.6787409973863276</v>
       </c>
       <c r="O11">
-        <v>1.921378985876657</v>
+        <v>1.508367258169898</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,31 +891,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.9939381989250933</v>
+        <v>3.042285108530052</v>
       </c>
       <c r="C12">
-        <v>0.1964588420425457</v>
+        <v>0.598619241166972</v>
       </c>
       <c r="D12">
-        <v>0.3541149794204159</v>
+        <v>0.3119549358322899</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.000501885633597</v>
+        <v>0.8171205797502665</v>
       </c>
       <c r="G12">
-        <v>0.4303282300867579</v>
+        <v>0.4600131925292317</v>
       </c>
       <c r="H12">
-        <v>0.5562499248840851</v>
+        <v>0.290478542581269</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2884546992886641</v>
+        <v>0.2057829200270831</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4659788605973247</v>
+        <v>1.065071576099456</v>
       </c>
       <c r="N12">
-        <v>1.071647110772403</v>
+        <v>0.6773551545488559</v>
       </c>
       <c r="O12">
-        <v>1.92348290975707</v>
+        <v>1.535235082843968</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,31 +938,31 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.9890225097093435</v>
+        <v>3.026076354682004</v>
       </c>
       <c r="C13">
-        <v>0.19552825819639</v>
+        <v>0.5957106117294018</v>
       </c>
       <c r="D13">
-        <v>0.3538524085285957</v>
+        <v>0.3106325285906593</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.000146940008989</v>
+        <v>0.8139421082920535</v>
       </c>
       <c r="G13">
-        <v>0.4300508104319505</v>
+        <v>0.4579285554302572</v>
       </c>
       <c r="H13">
-        <v>0.5563169475251044</v>
+        <v>0.2898209871827504</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2883925462598</v>
+        <v>0.2050505163028831</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4643740769006257</v>
+        <v>1.059340541143534</v>
       </c>
       <c r="N13">
-        <v>1.071898386123252</v>
+        <v>0.6776453855352145</v>
       </c>
       <c r="O13">
-        <v>1.923021122183115</v>
+        <v>1.529419148772007</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,31 +985,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.9729889804409595</v>
+        <v>2.973236343225324</v>
       </c>
       <c r="C14">
-        <v>0.1924920883174082</v>
+        <v>0.5862260738979046</v>
       </c>
       <c r="D14">
-        <v>0.352999432018521</v>
+        <v>0.3063284901049883</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>0.9990046773192205</v>
+        <v>0.8036254799193472</v>
       </c>
       <c r="G14">
-        <v>0.4291546781559674</v>
+        <v>0.4511644059654145</v>
       </c>
       <c r="H14">
-        <v>0.5565427162712382</v>
+        <v>0.2876956011987062</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2881938063116962</v>
+        <v>0.2026739851670172</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.4591425743956208</v>
+        <v>1.040665049234278</v>
       </c>
       <c r="N14">
-        <v>1.07272867234132</v>
+        <v>0.6786232874743519</v>
       </c>
       <c r="O14">
-        <v>1.92154817046773</v>
+        <v>1.510564492303587</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,31 +1032,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.9631661618454359</v>
+        <v>2.940885443759214</v>
       </c>
       <c r="C15">
-        <v>0.190631326850081</v>
+        <v>0.5804173381586395</v>
       </c>
       <c r="D15">
-        <v>0.3524795156259444</v>
+        <v>0.3036986888835855</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.9983167590663413</v>
+        <v>0.7973435099758746</v>
       </c>
       <c r="G15">
-        <v>0.4286123723760085</v>
+        <v>0.4470472019009435</v>
       </c>
       <c r="H15">
-        <v>0.556686533907552</v>
+        <v>0.286408228158848</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2880751110129296</v>
+        <v>0.2012274042779154</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.45593970748169</v>
+        <v>1.029236821863002</v>
       </c>
       <c r="N15">
-        <v>1.073245564648055</v>
+        <v>0.6792462174467957</v>
       </c>
       <c r="O15">
-        <v>1.920671327526719</v>
+        <v>1.49910081280936</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,31 +1079,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9068486696723426</v>
+        <v>2.755709951723759</v>
       </c>
       <c r="C16">
-        <v>0.1799526356254546</v>
+        <v>0.5471401530375601</v>
       </c>
       <c r="D16">
-        <v>0.3495393469682</v>
+        <v>0.2887256082798899</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.9945546770349125</v>
+        <v>0.7618976137383981</v>
       </c>
       <c r="G16">
-        <v>0.4256057190788596</v>
+        <v>0.4238388849358898</v>
       </c>
       <c r="H16">
-        <v>0.5575954309306894</v>
+        <v>0.2792468897652043</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2874414855560161</v>
+        <v>0.1930730423009166</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.4376098818498164</v>
+        <v>0.9639070125489866</v>
       </c>
       <c r="N16">
-        <v>1.076335227998733</v>
+        <v>0.6831752248687195</v>
       </c>
       <c r="O16">
-        <v>1.916035356196772</v>
+        <v>1.434674450692597</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,31 +1126,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.8722767945277496</v>
+        <v>2.642283596169136</v>
       </c>
       <c r="C17">
-        <v>0.1733880743259135</v>
+        <v>0.5267325795420845</v>
       </c>
       <c r="D17">
-        <v>0.3477707700078554</v>
+        <v>0.2796235981871718</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.9924074607808251</v>
+        <v>0.7406279462177991</v>
       </c>
       <c r="G17">
-        <v>0.4238513278851457</v>
+        <v>0.4099314009317681</v>
       </c>
       <c r="H17">
-        <v>0.5582286331992208</v>
+        <v>0.2750401090761159</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2870943259619452</v>
+        <v>0.1881869021542428</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.4263873258109285</v>
+        <v>0.9239635782175668</v>
       </c>
       <c r="N17">
-        <v>1.078344539784574</v>
+        <v>0.6858979882396028</v>
       </c>
       <c r="O17">
-        <v>1.913538124850959</v>
+        <v>1.396238634614662</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,31 +1173,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.8523839711119763</v>
+        <v>2.577100122672789</v>
       </c>
       <c r="C18">
-        <v>0.1696074308922846</v>
+        <v>0.5149963308194003</v>
       </c>
       <c r="D18">
-        <v>0.3467664727734956</v>
+        <v>0.2744177743057605</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.9912314923324743</v>
+        <v>0.7285616182362276</v>
       </c>
       <c r="G18">
-        <v>0.4228753159997041</v>
+        <v>0.4020480238501563</v>
       </c>
       <c r="H18">
-        <v>0.5586206303264873</v>
+        <v>0.2726865549063717</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2869099158716963</v>
+        <v>0.185417510899569</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.4199406961101388</v>
+        <v>0.9010349934104909</v>
       </c>
       <c r="N18">
-        <v>1.079542132897814</v>
+        <v>0.6875757281497812</v>
       </c>
       <c r="O18">
-        <v>1.912229146313024</v>
+        <v>1.374514374247838</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,31 +1220,31 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.8456472702445694</v>
+        <v>2.555039140780821</v>
       </c>
       <c r="C19">
-        <v>0.1683265402287759</v>
+        <v>0.5110228400947676</v>
       </c>
       <c r="D19">
-        <v>0.3464286609655289</v>
+        <v>0.2726601056059508</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.990843471837934</v>
+        <v>0.7245042525886447</v>
       </c>
       <c r="G19">
-        <v>0.4225505305794002</v>
+        <v>0.3993982380188754</v>
       </c>
       <c r="H19">
-        <v>0.5587581282318865</v>
+        <v>0.2719008033393777</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2868500996794623</v>
+        <v>0.1844867201292999</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.4177594138045961</v>
+        <v>0.8932793127139291</v>
       </c>
       <c r="N19">
-        <v>1.079954815004136</v>
+        <v>0.68816267150671</v>
       </c>
       <c r="O19">
-        <v>1.911807815732971</v>
+        <v>1.367223147125799</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,31 +1267,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.8759578667618939</v>
+        <v>2.654352033917917</v>
       </c>
       <c r="C20">
-        <v>0.1740873903391105</v>
+        <v>0.5289048104791902</v>
       </c>
       <c r="D20">
-        <v>0.3479576994304523</v>
+        <v>0.2805894505681152</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>0.9926299237276055</v>
+        <v>0.7428746509772566</v>
       </c>
       <c r="G20">
-        <v>0.4240346625201852</v>
+        <v>0.4113997664527176</v>
       </c>
       <c r="H20">
-        <v>0.5581583510645203</v>
+        <v>0.2754810352701043</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2871297015732424</v>
+        <v>0.1887027593025152</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.427581131242377</v>
+        <v>0.9282108045679465</v>
       </c>
       <c r="N20">
-        <v>1.078126310350932</v>
+        <v>0.6855965174418515</v>
       </c>
       <c r="O20">
-        <v>1.913790775994528</v>
+        <v>1.400290183216612</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,31 +1314,31 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.9776987980844183</v>
+        <v>2.98875353904873</v>
       </c>
       <c r="C21">
-        <v>0.1933840980277353</v>
+        <v>0.5890117368237782</v>
       </c>
       <c r="D21">
-        <v>0.353249439347195</v>
+        <v>0.3075913187102515</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>0.9993377387265667</v>
+        <v>0.8066479154519755</v>
       </c>
       <c r="G21">
-        <v>0.429416518034401</v>
+        <v>0.4531457431173891</v>
       </c>
       <c r="H21">
-        <v>0.5564752505627268</v>
+        <v>0.2883168449411215</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2882515477863876</v>
+        <v>0.2033701204420382</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.4606788650655105</v>
+        <v>1.046148169953469</v>
       </c>
       <c r="N21">
-        <v>1.072483063849297</v>
+        <v>0.6783310470262052</v>
       </c>
       <c r="O21">
-        <v>1.921975521958672</v>
+        <v>1.516084677860221</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,31 +1361,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.044112114198754</v>
+        <v>3.20796206427633</v>
       </c>
       <c r="C22">
-        <v>0.2059502148155445</v>
+        <v>0.6283292441743527</v>
       </c>
       <c r="D22">
-        <v>0.3568224062251062</v>
+        <v>0.3255281462047463</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.004247606360849</v>
+        <v>0.849975514198448</v>
       </c>
       <c r="G22">
-        <v>0.4332292107990554</v>
+        <v>0.4815794308391901</v>
       </c>
       <c r="H22">
-        <v>0.5556226689469526</v>
+        <v>0.2973475159279673</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2891207362991253</v>
+        <v>0.2133591896771989</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.4823811883607476</v>
+        <v>1.123712021485382</v>
       </c>
       <c r="N22">
-        <v>1.069167253692498</v>
+        <v>0.6746454253177916</v>
       </c>
       <c r="O22">
-        <v>1.928460572925019</v>
+        <v>1.595537202497951</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,31 +1408,31 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.008673860267038</v>
+        <v>3.090898262632891</v>
       </c>
       <c r="C23">
-        <v>0.1992476888797228</v>
+        <v>0.6073406310468954</v>
       </c>
       <c r="D23">
-        <v>0.354905004493105</v>
+        <v>0.315927038047576</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.001578993096771</v>
+        <v>0.8266920399659909</v>
       </c>
       <c r="G23">
-        <v>0.4311672392217503</v>
+        <v>0.4662926037460409</v>
       </c>
       <c r="H23">
-        <v>0.5560550734200547</v>
+        <v>0.2924662708542627</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2886443880397778</v>
+        <v>0.2079890300855496</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.4707918833628568</v>
+        <v>1.08226646967961</v>
       </c>
       <c r="N23">
-        <v>1.070902922015549</v>
+        <v>0.6765118330951339</v>
       </c>
       <c r="O23">
-        <v>1.924895367752413</v>
+        <v>1.552768245829839</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,31 +1455,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.874293706831395</v>
+        <v>2.648895811263969</v>
       </c>
       <c r="C24">
-        <v>0.1737712500753616</v>
+        <v>0.5279227564907956</v>
       </c>
       <c r="D24">
-        <v>0.3478731497531271</v>
+        <v>0.2801527047732861</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>0.9925291660231466</v>
+        <v>0.7418584132160362</v>
       </c>
       <c r="G24">
-        <v>0.4239516753606694</v>
+        <v>0.4107355701444106</v>
       </c>
       <c r="H24">
-        <v>0.55819003852001</v>
+        <v>0.2752814907170773</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2871136609868543</v>
+        <v>0.1884694169926675</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.4270413950583745</v>
+        <v>0.9262905240167001</v>
       </c>
       <c r="N24">
-        <v>1.078224839756039</v>
+        <v>0.6857324630701171</v>
       </c>
       <c r="O24">
-        <v>1.913676157728247</v>
+        <v>1.398457320212486</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,31 +1502,31 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.729042145910455</v>
+        <v>2.174200955183267</v>
       </c>
       <c r="C25">
-        <v>0.1461052131865017</v>
+        <v>0.4423111159355813</v>
       </c>
       <c r="D25">
-        <v>0.3407833303470511</v>
+        <v>0.2426746084872917</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>0.9850250704817753</v>
+        <v>0.6566724373169492</v>
       </c>
       <c r="G25">
-        <v>0.4174321712280857</v>
+        <v>0.3551766987852574</v>
       </c>
       <c r="H25">
-        <v>0.5615556840317026</v>
+        <v>0.2592440078375802</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2860461621919583</v>
+        <v>0.1689620435904189</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.3801677211708494</v>
+        <v>0.7597581743132622</v>
       </c>
       <c r="N25">
-        <v>1.087724680636711</v>
+        <v>0.6999132312628475</v>
       </c>
       <c r="O25">
-        <v>1.906442585080072</v>
+        <v>1.24646619115552</v>
       </c>
     </row>
   </sheetData>
